--- a/data/output/Pedido_Semana_07_21022026_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_tierras_aridos.xlsx
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="8" t="n">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="8" t="n">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U13" s="8" t="n">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>3103040002</t>
@@ -3173,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>8</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3416,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S36" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U36" s="8" t="n">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>6</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S40" s="2" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S41" s="2" t="n">
         <v>16</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U41" s="8" t="n">
         <v>0</v>
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" s="8" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
